--- a/me/3.shopping/2.Xay-dung-Class-va-Interface-can-thiet.xlsx
+++ b/me/3.shopping/2.Xay-dung-Class-va-Interface-can-thiet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE951EA5-73E3-48CC-9283-A83A865EC162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1BC72-8888-418B-B99A-2A08E603E826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductRepository" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
   <si>
     <t>構成</t>
   </si>
@@ -241,6 +242,81 @@
   </si>
   <si>
     <t>export class Product {</t>
+  </si>
+  <si>
+    <t>Kho chứa sản phẩm ProductRepository chứa các sản phẩm Product[]</t>
+  </si>
+  <si>
+    <t>Có phương thức thêm sản phẩm vào kho hàng addItem()</t>
+  </si>
+  <si>
+    <t>Lấy ra tất cả các sản phẩm trong kho hàng getItems()</t>
+  </si>
+  <si>
+    <t>Lấy ra 1 sản phẩm dựa vào id của sản phẩm getItemByID()</t>
+  </si>
+  <si>
+    <t>product-repository.ts</t>
+  </si>
+  <si>
+    <t>typescript\3.shopping\ts\product-repository.ts</t>
+  </si>
+  <si>
+    <t>import { Product } from "./product";</t>
+  </si>
+  <si>
+    <t>export class ProductRepository {</t>
+  </si>
+  <si>
+    <t>    private products: Product[] = [];</t>
+  </si>
+  <si>
+    <t>    constructor() {</t>
+  </si>
+  <si>
+    <t>    public addItem(product: Product) {</t>
+  </si>
+  <si>
+    <t>    public getItems() : Product[] {</t>
+  </si>
+  <si>
+    <t>        return [];</t>
+  </si>
+  <si>
+    <t>    public getItemByID(id : number) : Product {</t>
+  </si>
+  <si>
+    <t>    public showItemsInHTML() : string {</t>
+  </si>
+  <si>
+    <t>        return "";</t>
+  </si>
+  <si>
+    <t>product-repository.js</t>
+  </si>
+  <si>
+    <t>Thêm vào 1 sản phẩm</t>
+  </si>
+  <si>
+    <t>Lấy ra danh sách tất cả các sản phẩm</t>
+  </si>
+  <si>
+    <t>Lấy ra sản phẩm nào đó dựa vào id</t>
+  </si>
+  <si>
+    <t>Trong kho hàng có các mặt hàng</t>
+  </si>
+  <si>
+    <t>Lấy ra tất cả các sản phẩm mà mình đỏ vào thuộc tính products</t>
+  </si>
+  <si>
+    <t>Lấy tất cả các sản phẩm cà lồng mã html vào để hiển thị ra ngoài</t>
+  </si>
+  <si>
+    <t>Để các chỗ khác có thể import được nên phải có export</t>
+  </si>
+  <si>
+    <t>        return null;</t>
   </si>
 </sst>
 </file>
@@ -567,6 +643,214 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408914</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDB428A-E06E-CD58-1936-B03256CBF47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11811000"/>
+          <a:ext cx="5285714" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35341115-2D26-E8A2-0880-BE6D0E4F99C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="12668250"/>
+          <a:ext cx="1266825" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B796EF5-C0D6-7394-341E-3E546FA69B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2124075" y="5286375"/>
+          <a:ext cx="419100" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C05E22-0814-009D-0D40-68FF63D8CF0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="7010400"/>
+          <a:ext cx="7543800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -832,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +1269,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="16"/>
       <c r="C17" s="12"/>
@@ -997,7 +1281,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="16"/>
       <c r="C18" s="12"/>
@@ -1009,7 +1293,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="16"/>
       <c r="C19" s="12"/>
@@ -1021,7 +1305,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="16"/>
       <c r="C20" s="12"/>
@@ -1033,7 +1317,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="16"/>
       <c r="C21" s="12"/>
@@ -1045,7 +1329,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="16"/>
       <c r="C22" s="12"/>
@@ -1057,7 +1341,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="16"/>
       <c r="C23" s="12"/>
@@ -1069,7 +1353,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="16"/>
       <c r="C24" s="12"/>
@@ -1087,7 +1371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="16"/>
       <c r="C25" s="12"/>
@@ -1099,7 +1383,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="16"/>
       <c r="C26" s="12"/>
@@ -1111,7 +1395,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -1123,12 +1407,12 @@
       <c r="G27" s="19"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
@@ -1142,8 +1426,14 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -2394,4 +2684,1090 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925BF47E-1525-430C-89F2-337512126C19}">
+  <dimension ref="A2:O92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="17"/>
+      <c r="I87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.shopping/2.Xay-dung-Class-va-Interface-can-thiet.xlsx
+++ b/me/3.shopping/2.Xay-dung-Class-va-Interface-can-thiet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE1BC72-8888-418B-B99A-2A08E603E826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC2B42-48FE-460F-8F83-AFE40D134744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
     <sheet name="ProductRepository" sheetId="2" r:id="rId2"/>
+    <sheet name="CartItem" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="123">
   <si>
     <t>構成</t>
   </si>
@@ -317,6 +318,84 @@
   </si>
   <si>
     <t>        return null;</t>
+  </si>
+  <si>
+    <t>cart-item.ts</t>
+  </si>
+  <si>
+    <t>typescript\3.shopping\ts\cart-item.ts</t>
+  </si>
+  <si>
+    <t>import { Product } from './product';</t>
+  </si>
+  <si>
+    <t>export class CartItem {</t>
+  </si>
+  <si>
+    <t>    private _product: Product;</t>
+  </si>
+  <si>
+    <t>    private _quantity: number;</t>
+  </si>
+  <si>
+    <t>    constructor (product: Product, quantity: number = 1) {</t>
+  </si>
+  <si>
+    <t>        this._product = product;</t>
+  </si>
+  <si>
+    <t>        this._quantity = quantity;</t>
+  </si>
+  <si>
+    <t>    public showCartItemInHTML(index : number) : string {</t>
+  </si>
+  <si>
+    <t>    public getSubtotal() : number {</t>
+  </si>
+  <si>
+    <t>        return 1;</t>
+  </si>
+  <si>
+    <t>    public get quantity() : number {</t>
+  </si>
+  <si>
+    <t>        return this._quantity;</t>
+  </si>
+  <si>
+    <t>    public set quantity(v : number) {</t>
+  </si>
+  <si>
+    <t>        this._quantity = v;</t>
+  </si>
+  <si>
+    <t>    public get product() : Product {</t>
+  </si>
+  <si>
+    <t>        return this._product;</t>
+  </si>
+  <si>
+    <t>    public set product(v : Product) {</t>
+  </si>
+  <si>
+    <t>        this._product = v;</t>
+  </si>
+  <si>
+    <t>cart-item.js</t>
+  </si>
+  <si>
+    <t>Trong giỏ hàng chứa nhiều sản phẩm, mỗi sản phẩm đóng vai trò là CartItem</t>
+  </si>
+  <si>
+    <t>Số lượng sản phẩm mà mình mua</t>
+  </si>
+  <si>
+    <t>Cho biết CartItem đó tương đương với loại sản phẩm nào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lồng mã html vào để hiển thị cart item ra ngoài </t>
+  </si>
+  <si>
+    <t>Tổng số tiền mua 1 sản phẩm(giá sản phẩm đó nhân số lượng mua sp đó)</t>
   </si>
 </sst>
 </file>
@@ -851,6 +930,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465905</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E7F29C-51BE-A701-4928-8AAC6B9894DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="6561905" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A65DFFB-EA2C-33E5-CFCF-CE067010BEB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="14401800"/>
+          <a:ext cx="1666875" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2690,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925BF47E-1525-430C-89F2-337512126C19}">
   <dimension ref="A2:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3770,4 +3951,1023 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C7458D-027E-405D-9BCB-E79187CEF673}">
+  <dimension ref="A2:J103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="6"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="6"/>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="6"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="6"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="17"/>
+      <c r="I95" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.shopping/2.Xay-dung-Class-va-Interface-can-thiet.xlsx
+++ b/me/3.shopping/2.Xay-dung-Class-va-Interface-can-thiet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC2B42-48FE-460F-8F83-AFE40D134744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC02BB56-FC21-47D0-9665-744463371755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
     <sheet name="ProductRepository" sheetId="2" r:id="rId2"/>
     <sheet name="CartItem" sheetId="3" r:id="rId3"/>
+    <sheet name="Cart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="150">
   <si>
     <t>構成</t>
   </si>
@@ -396,6 +397,87 @@
   </si>
   <si>
     <t>Tổng số tiền mua 1 sản phẩm(giá sản phẩm đó nhân số lượng mua sp đó)</t>
+  </si>
+  <si>
+    <t>cart.ts</t>
+  </si>
+  <si>
+    <t>typescript\3.shopping\ts\cart.ts</t>
+  </si>
+  <si>
+    <t>import { CartItem } from './cart-item';</t>
+  </si>
+  <si>
+    <t>export class Cart {</t>
+  </si>
+  <si>
+    <t>    private cartItems: CartItem[] = [];</t>
+  </si>
+  <si>
+    <t>    private totalQuantity: number = 0;</t>
+  </si>
+  <si>
+    <t>    private totalPrice: number = 0;</t>
+  </si>
+  <si>
+    <t>    public addProduct (product: Product, quantity: number = 1) : void {</t>
+  </si>
+  <si>
+    <t>    public updateProduct (product: Product, quantity: number = 1) :void {</t>
+  </si>
+  <si>
+    <t>    public removeProduct (product: Product) : void {</t>
+  </si>
+  <si>
+    <t>    public isEmpty () : boolean {</t>
+  </si>
+  <si>
+    <t>        return (this.cartItems.length == 0);</t>
+  </si>
+  <si>
+    <t>    public getTotalQuantity () : number {</t>
+  </si>
+  <si>
+    <t>    public getTotalPrice () : number {</t>
+  </si>
+  <si>
+    <t>    public showCartBodyInHTML () : string {</t>
+  </si>
+  <si>
+    <t>    public showCartFooterInHTML () : string {</t>
+  </si>
+  <si>
+    <t>cart.js</t>
+  </si>
+  <si>
+    <t>Xây dựng Class giỏ hàng Cart chứa các CartItem</t>
+  </si>
+  <si>
+    <t>Danh sách các phần tử(sản phẩm mua)</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào trong giỏ hàng(sản phẩm nào, số lượng là bao nhiêu)</t>
+  </si>
+  <si>
+    <t>Cập nhật lại số lượng của sản phẩm nào đó trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm nào đó ra khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem giỏ hàng có rỗng hay không</t>
+  </si>
+  <si>
+    <t>Thống kê tổng số các sản phẩm mua</t>
+  </si>
+  <si>
+    <t>Tổng số tiền mua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị các sản phẩm </t>
+  </si>
+  <si>
+    <t>Hiển thị phần thống kê giỏ hàng có bao nhiêu sản phẩm, tổng số tiền là bao nhiêu</t>
   </si>
 </sst>
 </file>
@@ -1029,6 +1111,214 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE9DADC-75C9-ED67-E3F8-B46537BADA10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2133600" y="4714875"/>
+          <a:ext cx="742950" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484952</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3C841A-6C35-521A-4ECE-DC23AEC94473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14668500"/>
+          <a:ext cx="6580952" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D7E5DA-F5A4-88B0-6030-79E6E3D655F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="15592425"/>
+          <a:ext cx="1609725" cy="3876675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84946126-7EB7-C4BC-635F-5CF37DEFBE7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1838325" y="4914900"/>
+          <a:ext cx="723900" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2871,7 +3161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925BF47E-1525-430C-89F2-337512126C19}">
   <dimension ref="A2:O92"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
@@ -3957,8 +4247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C7458D-027E-405D-9BCB-E79187CEF673}">
   <dimension ref="A2:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,4 +5260,1187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7F17D2-1705-4314-BDAF-9D08289124F5}">
+  <dimension ref="A2:J112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="6"/>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="6"/>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="6"/>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="6"/>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="6"/>
+      <c r="I54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="6"/>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="6"/>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="6"/>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="6"/>
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="17"/>
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>